--- a/workfile/锐安项目文档/收尾文档/报表页面加载时间_报告1120.xlsx
+++ b/workfile/锐安项目文档/收尾文档/报表页面加载时间_报告1120.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21525" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="9855" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="相关性能问题跟进" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">report性能加载时间相关!$A$1:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">相关性能问题跟进!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A16" activeCellId="1" sqref="A17:G17 A16:G16"/>
     </sheetView>
   </sheetViews>
@@ -3306,7 +3306,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -4101,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>

--- a/workfile/锐安项目文档/收尾文档/报表页面加载时间_报告1120.xlsx
+++ b/workfile/锐安项目文档/收尾文档/报表页面加载时间_报告1120.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="9855" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="9855" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="相关性能问题跟进" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">report性能加载时间相关!$A$1:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">相关性能问题跟进!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3999,14 +3999,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4101,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+    <sheetView topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
